--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Arquivos\Pessoal\Mestrado\Disciplinas\Análise de Algoritmos\Trabalhos\Divide and Conquer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Arquivos\Pessoal\Mestrado\Disciplinas\Análise de Algoritmos\Trabalhos\divideandconquer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_B9397E1130A1EB639315DEB559F775BD21564304" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C7EA78E1-E683-48FD-B083-1374D154F2E6}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_B9397E1130A1EB639315DEB559F775BD21564304" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{614A2F3E-4301-4BE2-8D0A-783E771DC70D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -104,11 +104,11 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -116,10 +116,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,7 +464,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1281,7 +1280,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0774F464-3271-4A0D-BC29-4BF9622F648A}" name="Tabela2" displayName="Tabela2" ref="A1:C25" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0774F464-3271-4A0D-BC29-4BF9622F648A}" name="Tabela2" displayName="Tabela2" ref="A1:C26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{10A13229-FBE9-4F3F-ADCF-DF6CFACCD9FF}" name="N" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1CD166F5-E92C-4B83-866A-ABEA1F85D139}" name="Trivial" dataDxfId="1"/>
@@ -1588,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1848,21 +1847,26 @@
     </row>
     <row r="25" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>480000000</v>
+        <v>400000000</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5">
+        <v>174.572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>480000000</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5">
         <v>209.82300000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-    </row>
     <row r="27" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -1879,6 +1883,10 @@
     <row r="31" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Arquivos\Pessoal\Mestrado\Disciplinas\Análise de Algoritmos\Trabalhos\divideandconquer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_B9397E1130A1EB639315DEB559F775BD21564304" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{614A2F3E-4301-4BE2-8D0A-783E771DC70D}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="11_B9397E1130A1EB639315DEB559F775BD21564304" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A34EC702-430F-4155-9598-0ABE91DB1574}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Arquivos\Pessoal\Mestrado\Disciplinas\Análise de Algoritmos\Trabalhos\divideandconquer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="11_B9397E1130A1EB639315DEB559F775BD21564304" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A34EC702-430F-4155-9598-0ABE91DB1574}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="11_B9397E1130A1EB639315DEB559F775BD21564304" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{917CF2B4-D99F-4B3D-BF31-CBD74719647D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-4335" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tempos" sheetId="5" r:id="rId1"/>
-    <sheet name="Gráficos" sheetId="6" r:id="rId2"/>
+    <sheet name="antigo" sheetId="5" r:id="rId1"/>
+    <sheet name="Gráfico" sheetId="12" r:id="rId2"/>
+    <sheet name="Tempo Gráfico" sheetId="9" r:id="rId3"/>
+    <sheet name="tempos (2)" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="lista" localSheetId="3">#REF!</definedName>
     <definedName name="lista">#REF!</definedName>
+    <definedName name="novalista" localSheetId="3">#REF!</definedName>
     <definedName name="novalista">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>N</t>
   </si>
@@ -46,16 +50,37 @@
   <si>
     <t>MergeSort</t>
   </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,10 +105,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -98,9 +124,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -148,6 +180,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Tempo x Tamanho da entrada</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -155,116 +242,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tempos!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tempos!$A$2:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>500000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8D35-4DF1-A610-860C61F9510D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tempos!$B$1</c:f>
+              <c:f>'Tempo Gráfico'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -283,76 +265,37 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Tempos!$B$2:$B$18</c:f>
+              <c:f>'Tempo Gráfico'!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.28299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89200000000000002</c:v>
+                  <c:v>5.9720000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.948</c:v>
+                  <c:v>7.7720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.891</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.82</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.651999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.716000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>211.50200000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>413.05399999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>599.43499999999995</c:v>
+                  <c:v>10.643000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,16 +303,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8D35-4DF1-A610-860C61F9510D}"/>
+              <c16:uniqueId val="{00000001-7DC0-4449-9716-7840858CB6FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tempos!$C$1</c:f>
+              <c:f>'Tempo Gráfico'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -388,70 +331,37 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Tempos!$C$2:$C$18</c:f>
+              <c:f>'Tempo Gráfico'!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.111</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.18</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,31 +369,56 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8D35-4DF1-A610-860C61F9510D}"/>
+              <c16:uniqueId val="{00000002-7DC0-4449-9716-7840858CB6FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1691312351"/>
-        <c:axId val="1681639599"/>
+        <c:axId val="1626415536"/>
+        <c:axId val="1917513504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1691312351"/>
+        <c:axId val="1626415536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tamanho da entrada</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -550,7 +485,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681639599"/>
+        <c:crossAx val="1917513504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -558,7 +493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681639599"/>
+        <c:axId val="1917513504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,6 +514,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -608,7 +568,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -639,10 +599,25 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691312351"/>
+        <c:crossAx val="1626415536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="99000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -650,7 +625,27 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -687,11 +682,6 @@
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -736,7 +726,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1238,31 +1228,34 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4549BE1B-3D7B-4AE0-8FE3-C10A8736FCFC}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9643533" cy="6011333"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D84A1B-2116-43FC-BD6E-2E653D1CAB54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EFF417-5D81-4DCF-9BAB-29910CCAF19B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1275,7 +1268,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1587,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1599,6 +1592,7 @@
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1773,7 +1767,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>400000</v>
       </c>
@@ -1784,7 +1778,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>500000</v>
       </c>
@@ -1795,28 +1789,37 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>600000</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>700000</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>800000</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1000000</v>
       </c>
@@ -1826,8 +1829,17 @@
       <c r="C22" s="5">
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>10000000</v>
       </c>
@@ -1835,8 +1847,17 @@
       <c r="C23" s="5">
         <v>4.72</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="7">
+        <v>100000</v>
+      </c>
+      <c r="I23" s="8">
+        <v>21.393000000000001</v>
+      </c>
+      <c r="J23" s="8">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>100000000</v>
       </c>
@@ -1844,8 +1865,17 @@
       <c r="C24" s="5">
         <v>110.41</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="7">
+        <v>500000</v>
+      </c>
+      <c r="I24" s="8">
+        <v>533.03300000000002</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>400000000</v>
       </c>
@@ -1853,8 +1883,17 @@
       <c r="C25" s="5">
         <v>174.572</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="I25" s="8">
+        <v>2124.1779999999999</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>480000000</v>
       </c>
@@ -1862,29 +1901,45 @@
       <c r="C26" s="5">
         <v>209.82300000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="I26" s="8">
+        <v>8550.61</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="7">
+        <v>480000000</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8">
+        <v>209.82300000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
@@ -1897,21 +1952,699 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234119DD-0609-45F0-8AEF-05329187F9BE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB5F506-D70A-48AE-88A7-74E5B4B18A5D}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20000</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30000</v>
+      </c>
+      <c r="B4">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40000</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50000</v>
+      </c>
+      <c r="B6">
+        <v>5.9720000000000004</v>
+      </c>
+      <c r="C6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>60000</v>
+      </c>
+      <c r="B7">
+        <v>7.7720000000000002</v>
+      </c>
+      <c r="C7">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70000</v>
+      </c>
+      <c r="B8">
+        <v>10.643000000000001</v>
+      </c>
+      <c r="C8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>80000</v>
+      </c>
+      <c r="B9">
+        <v>13.948</v>
+      </c>
+      <c r="C9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>90000</v>
+      </c>
+      <c r="B10">
+        <v>18.318000000000001</v>
+      </c>
+      <c r="C10">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100000</v>
+      </c>
+      <c r="B11">
+        <v>25.498000000000001</v>
+      </c>
+      <c r="C11">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>110000</v>
+      </c>
+      <c r="B12">
+        <v>28.422999999999998</v>
+      </c>
+      <c r="C12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>120000</v>
+      </c>
+      <c r="B13">
+        <v>34.71</v>
+      </c>
+      <c r="C13">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E09C154-2F6C-41A0-8F5D-539119C03B5C}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>400</v>
+      </c>
+      <c r="B14">
+        <v>1E-3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>500</v>
+      </c>
+      <c r="B15">
+        <v>1E-3</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>600</v>
+      </c>
+      <c r="B16">
+        <v>1E-3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>700</v>
+      </c>
+      <c r="B17">
+        <v>2E-3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>800</v>
+      </c>
+      <c r="B18">
+        <v>1E-3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19">
+        <v>2E-3</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20">
+        <v>2E-3</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4000</v>
+      </c>
+      <c r="B23">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5000</v>
+      </c>
+      <c r="B24">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6000</v>
+      </c>
+      <c r="B25">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7000</v>
+      </c>
+      <c r="B26">
+        <v>0.104</v>
+      </c>
+      <c r="C26">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8000</v>
+      </c>
+      <c r="B27">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C27">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9000</v>
+      </c>
+      <c r="B28">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C28">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10000</v>
+      </c>
+      <c r="B29">
+        <v>0.23</v>
+      </c>
+      <c r="C29">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20000</v>
+      </c>
+      <c r="B30">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="C30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30000</v>
+      </c>
+      <c r="B31">
+        <v>1.925</v>
+      </c>
+      <c r="C31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>40000</v>
+      </c>
+      <c r="B32">
+        <v>3.4580000000000002</v>
+      </c>
+      <c r="C32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>50000</v>
+      </c>
+      <c r="B33">
+        <v>5.3609999999999998</v>
+      </c>
+      <c r="C33">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>60000</v>
+      </c>
+      <c r="B34">
+        <v>7.6989999999999998</v>
+      </c>
+      <c r="C34">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>70000</v>
+      </c>
+      <c r="B35">
+        <v>10.54</v>
+      </c>
+      <c r="C35">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>80000</v>
+      </c>
+      <c r="B36">
+        <v>13.75</v>
+      </c>
+      <c r="C36">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>90000</v>
+      </c>
+      <c r="B37">
+        <v>17.297000000000001</v>
+      </c>
+      <c r="C37">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>100000</v>
+      </c>
+      <c r="B38">
+        <v>21.393000000000001</v>
+      </c>
+      <c r="C38">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>200000</v>
+      </c>
+      <c r="B39">
+        <v>85.376000000000005</v>
+      </c>
+      <c r="C39">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>300000</v>
+      </c>
+      <c r="B40">
+        <v>191.185</v>
+      </c>
+      <c r="C40">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>400000</v>
+      </c>
+      <c r="B41">
+        <v>341.24599999999998</v>
+      </c>
+      <c r="C41">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>500000</v>
+      </c>
+      <c r="B42">
+        <v>533.03300000000002</v>
+      </c>
+      <c r="C42">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>600000</v>
+      </c>
+      <c r="B43">
+        <v>776.755</v>
+      </c>
+      <c r="C43">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>700000</v>
+      </c>
+      <c r="B44">
+        <v>1053.277</v>
+      </c>
+      <c r="C44">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>800000</v>
+      </c>
+      <c r="B45">
+        <v>1356.423</v>
+      </c>
+      <c r="C45">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>900000</v>
+      </c>
+      <c r="B46">
+        <v>1725.2760000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1000000</v>
+      </c>
+      <c r="B47">
+        <v>2124.1779999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>